--- a/gunplay/Excel/Gun_枪表.xlsx
+++ b/gunplay/Excel/Gun_枪表.xlsx
@@ -54,6 +54,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -68,20 +82,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FFF54A45"/>
       <name val="Calibri"/>
@@ -179,19 +179,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="164" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="true" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -664,7 +664,7 @@
       <c r="H3" s="1" t="str">
         <v>是否翻转ICON</v>
       </c>
-      <c r="I3" s="2" t="str">
+      <c r="I3" s="4" t="str">
         <v>0：免费
 1：金币购买|Ads
 2：ads</v>
@@ -712,39 +712,39 @@
       <c r="T4" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="str">
+      <c r="B5" s="2" t="str">
         <v>M4A1卡宾枪</v>
       </c>
-      <c r="C5" s="3" t="str">
+      <c r="C5" s="2" t="str">
         <v>587777AD4056DC3AB465FBA7D3F5F7BA</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>101168</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>94153</v>
       </c>
-      <c r="F5" s="3" t="str">
+      <c r="F5" s="2" t="str">
         <v>-20|0|110</v>
       </c>
-      <c r="G5" s="3" t="str">
+      <c r="G5" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2">
         <v>0</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
         <v>0.1</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>30</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>25</v>
       </c>
       <c r="N5" s="1"/>
@@ -756,41 +756,41 @@
       <c r="T5" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="str">
+      <c r="B6" s="2" t="str">
         <v>AK47自动步枪</v>
       </c>
-      <c r="C6" s="3" t="str">
+      <c r="C6" s="2" t="str">
         <v>0D543D5346C331F41DA890A5E6DD3DB5</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>101171</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>95712</v>
       </c>
-      <c r="F6" s="3" t="str">
+      <c r="F6" s="2" t="str">
         <v>-20|0|110</v>
       </c>
-      <c r="G6" s="3" t="str">
+      <c r="G6" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="3" t="str">
+      <c r="J6" s="2" t="str">
         <v>1|8888</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>0.1</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>30</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>30</v>
       </c>
       <c r="N6" s="1"/>
@@ -802,41 +802,41 @@
       <c r="T6" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="str">
+      <c r="B7" s="2" t="str">
         <v>QBZ95式突击步枪</v>
       </c>
-      <c r="C7" s="3" t="str">
+      <c r="C7" s="2" t="str">
         <v>E3E0C2994D3518540DBB6D8C00C8AB83</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>120590</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>44974</v>
       </c>
-      <c r="F7" s="3" t="str">
+      <c r="F7" s="2" t="str">
         <v>0|0|110</v>
       </c>
-      <c r="G7" s="3" t="str">
+      <c r="G7" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3">
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
         <v>1</v>
       </c>
-      <c r="J7" s="3" t="str">
+      <c r="J7" s="2" t="str">
         <v>2|38888</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>0.1</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>30</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <v>35</v>
       </c>
       <c r="N7" s="1"/>
@@ -848,41 +848,41 @@
       <c r="T7" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="str">
+      <c r="B8" s="2" t="str">
         <v>SCAR突击步枪</v>
       </c>
-      <c r="C8" s="3" t="str">
+      <c r="C8" s="2" t="str">
         <v>5181250F44DF914A714B668F99177E3A</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>120588</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>43712</v>
       </c>
-      <c r="F8" s="3" t="str">
+      <c r="F8" s="2" t="str">
         <v>-10|0|110</v>
       </c>
-      <c r="G8" s="3" t="str">
+      <c r="G8" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3">
+      <c r="H8" s="2"/>
+      <c r="I8" s="2">
         <v>1</v>
       </c>
-      <c r="J8" s="3" t="str">
+      <c r="J8" s="2" t="str">
         <v>2|40888</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>0.1</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>30</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <v>35</v>
       </c>
       <c r="N8" s="1"/>
@@ -912,7 +912,7 @@
       <c r="F9" s="7" t="str">
         <v>-10|0|110</v>
       </c>
-      <c r="G9" s="3" t="str">
+      <c r="G9" s="2" t="str">
         <v>1|1|1</v>
       </c>
       <c r="H9" s="7">
@@ -942,41 +942,41 @@
       <c r="T9" s="7"/>
     </row>
     <row customHeight="true" ht="21" r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="str">
+      <c r="B10" s="3" t="str">
         <v>MP5冲锋枪</v>
       </c>
-      <c r="C10" s="3" t="str">
+      <c r="C10" s="2" t="str">
         <v>A469CCC84AAA873815243BB25439707C</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>101167</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>99703</v>
       </c>
-      <c r="F10" s="3" t="str">
+      <c r="F10" s="2" t="str">
         <v>0|0|110</v>
       </c>
-      <c r="G10" s="3" t="str">
+      <c r="G10" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3">
+      <c r="H10" s="2"/>
+      <c r="I10" s="2">
         <v>1</v>
       </c>
-      <c r="J10" s="3" t="str">
+      <c r="J10" s="2" t="str">
         <v>3|58888</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>0.07</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>35</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <v>25</v>
       </c>
       <c r="N10" s="1"/>
@@ -988,328 +988,328 @@
       <c r="T10" s="1"/>
     </row>
     <row customHeight="true" ht="21" r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="str">
+      <c r="B11" s="2" t="str">
         <v>MP7冲锋枪</v>
       </c>
-      <c r="C11" s="3" t="str">
+      <c r="C11" s="2" t="str">
         <v>68E812DC47B714F9A2BB2ABE18304C5B</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>101169</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>99701</v>
       </c>
-      <c r="F11" s="3" t="str">
+      <c r="F11" s="2" t="str">
         <v>-5|0|110</v>
       </c>
-      <c r="G11" s="3" t="str">
+      <c r="G11" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" s="3" t="str">
+      <c r="J11" s="2" t="str">
         <v>3|60888</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>0.07</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <v>35</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <v>25</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="str">
+      <c r="B12" s="2" t="str">
         <v>P90冲锋枪</v>
       </c>
-      <c r="C12" s="3" t="str">
+      <c r="C12" s="2" t="str">
         <v>BA1BDC034FCDE8574CBBAA8C4831A950</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>120592</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>43734</v>
       </c>
-      <c r="F12" s="3" t="str">
+      <c r="F12" s="2" t="str">
         <v>10|0|110</v>
       </c>
-      <c r="G12" s="3" t="str">
+      <c r="G12" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3">
+      <c r="H12" s="2"/>
+      <c r="I12" s="2">
         <v>1</v>
       </c>
-      <c r="J12" s="3" t="str">
+      <c r="J12" s="2" t="str">
         <v>4|68888</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>0.07</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="2">
         <v>40</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="2">
         <v>25</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="13">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="str">
+      <c r="B13" s="2" t="str">
         <v>M249机枪</v>
       </c>
-      <c r="C13" s="3" t="str">
+      <c r="C13" s="2" t="str">
         <v>FCFE18BE440FAEBD5AB999A222F10AA9</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>101166</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <v>95717</v>
       </c>
-      <c r="F13" s="3" t="str">
+      <c r="F13" s="2" t="str">
         <v>-20|0|110</v>
       </c>
-      <c r="G13" s="3" t="str">
+      <c r="G13" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3">
+      <c r="H13" s="2"/>
+      <c r="I13" s="2">
         <v>1</v>
       </c>
-      <c r="J13" s="3" t="str">
+      <c r="J13" s="2" t="str">
         <v>4|78888</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>0.1</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="2">
         <v>100</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="2">
         <v>30</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="3" t="str">
+      <c r="B14" s="2" t="str">
         <v>激光幽灵枪</v>
       </c>
-      <c r="C14" s="3" t="str">
+      <c r="C14" s="2" t="str">
         <v>23240FEE4F3BD25DE8EA6DBE525B3A20</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
         <v>122716</v>
       </c>
-      <c r="F14" s="3" t="str">
+      <c r="F14" s="2" t="str">
         <v>0|0|110</v>
       </c>
-      <c r="G14" s="3" t="str">
+      <c r="G14" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>1</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <v>3|-1</v>
+      </c>
+      <c r="K14" s="2">
         <v>1</v>
       </c>
-      <c r="J14" s="3" t="str">
-        <v>5|80888</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="2">
+        <v>5</v>
+      </c>
+      <c r="M14" s="2">
+        <v>70</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="15">
+      <c r="A15" s="2">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <v>激光巴雷特</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <v>015C826546EBC60F95EF399D16523B78</v>
+      </c>
+      <c r="D15" s="2">
+        <v>101165</v>
+      </c>
+      <c r="E15" s="6">
+        <v>99699</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <v>-30|0|110</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="H15" s="2">
         <v>1</v>
       </c>
-      <c r="L14" s="3">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3">
-        <v>70</v>
-      </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="15">
-      <c r="A15" s="3">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3" t="str">
-        <v>激光巴雷特</v>
-      </c>
-      <c r="C15" s="3" t="str">
-        <v>015C826546EBC60F95EF399D16523B78</v>
-      </c>
-      <c r="D15" s="3">
-        <v>101165</v>
-      </c>
-      <c r="E15" s="4">
-        <v>99699</v>
-      </c>
-      <c r="F15" s="3" t="str">
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <v>3|-1</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>10</v>
+      </c>
+      <c r="M15" s="2">
+        <v>100</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="16">
+      <c r="A16" s="2">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="str">
+        <v>激光烈火枪</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <v>0C7F278C4254F90F69614086DCA0B906</v>
+      </c>
+      <c r="D16" s="2">
+        <v>101163</v>
+      </c>
+      <c r="E16" s="2">
+        <v>95676</v>
+      </c>
+      <c r="F16" s="2" t="str">
         <v>-30|0|110</v>
       </c>
-      <c r="G15" s="3" t="str">
+      <c r="G16" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="H15" s="3">
-        <v>1</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1</v>
-      </c>
-      <c r="J15" s="3" t="str">
-        <v>5|88888</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1</v>
-      </c>
-      <c r="L15" s="3">
-        <v>10</v>
-      </c>
-      <c r="M15" s="3">
-        <v>100</v>
-      </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="16">
-      <c r="A16" s="3">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="str">
-        <v>激光烈火枪</v>
-      </c>
-      <c r="C16" s="3" t="str">
-        <v>0C7F278C4254F90F69614086DCA0B906</v>
-      </c>
-      <c r="D16" s="3">
-        <v>101163</v>
-      </c>
-      <c r="E16" s="3">
-        <v>95676</v>
-      </c>
-      <c r="F16" s="3" t="str">
+      <c r="H16" s="5"/>
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <v>3|-1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="L16" s="2">
+        <v>40</v>
+      </c>
+      <c r="M16" s="2">
+        <v>80</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row customHeight="true" ht="21" r="17">
+      <c r="A17" s="2">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <v>激光冰雷枪</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <v>29CD5E6145D1B05590E887A050E0D3C8</v>
+      </c>
+      <c r="D17" s="2">
+        <v>66181</v>
+      </c>
+      <c r="E17" s="2">
+        <v>122720</v>
+      </c>
+      <c r="F17" s="2" t="str">
         <v>-30|0|110</v>
       </c>
-      <c r="G16" s="3" t="str">
+      <c r="G17" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="3">
-        <v>1</v>
-      </c>
-      <c r="J16" s="3" t="str">
-        <v>10|188888</v>
-      </c>
-      <c r="K16" s="3">
+      <c r="H17" s="2"/>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="2" t="str">
+        <v>5|-1</v>
+      </c>
+      <c r="K17" s="2">
         <v>0.3</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L17" s="2">
         <v>40</v>
       </c>
-      <c r="M16" s="3">
-        <v>80</v>
-      </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-    </row>
-    <row customHeight="true" ht="21" r="17">
-      <c r="A17" s="3">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3" t="str">
-        <v>激光冰雷枪</v>
-      </c>
-      <c r="C17" s="3" t="str">
-        <v>29CD5E6145D1B05590E887A050E0D3C8</v>
-      </c>
-      <c r="D17" s="3">
-        <v>66181</v>
-      </c>
-      <c r="E17" s="3">
-        <v>122720</v>
-      </c>
-      <c r="F17" s="3" t="str">
-        <v>-30|0|110</v>
-      </c>
-      <c r="G17" s="3" t="str">
-        <v>1|1|1</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3" t="str">
-        <v>3|-1</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="L17" s="3">
-        <v>40</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="M17" s="2">
         <v>90</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="18">
       <c r="A18" s="1">
@@ -1325,25 +1325,25 @@
       <c r="E18" s="1">
         <v>99699</v>
       </c>
-      <c r="F18" s="3" t="str">
+      <c r="F18" s="2" t="str">
         <v>-30|0|110</v>
       </c>
-      <c r="G18" s="3" t="str">
+      <c r="G18" s="2" t="str">
         <v>1|1|1</v>
       </c>
       <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2" t="str">
+        <v>5|-1</v>
+      </c>
+      <c r="K18" s="2">
         <v>1</v>
       </c>
-      <c r="J18" s="1" t="str">
-        <v>20|288888</v>
-      </c>
-      <c r="K18" s="3">
-        <v>1</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="2">
         <v>10</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="2">
         <v>100</v>
       </c>
       <c r="N18" s="1"/>
@@ -1368,16 +1368,16 @@
       <c r="E19" s="1">
         <v>20799</v>
       </c>
-      <c r="F19" s="3" t="str">
+      <c r="F19" s="2" t="str">
         <v>-30|0|110</v>
       </c>
-      <c r="G19" s="3" t="str">
+      <c r="G19" s="2" t="str">
         <v>1|1|1</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>
       </c>
-      <c r="J19" s="1" t="str">
+      <c r="J19" s="2" t="str">
         <v>5|-1</v>
       </c>
       <c r="K19" s="1">
@@ -1411,16 +1411,16 @@
       <c r="E20" s="1">
         <v>122726</v>
       </c>
-      <c r="F20" s="3" t="str">
+      <c r="F20" s="2" t="str">
         <v>0|0|110</v>
       </c>
-      <c r="G20" s="3" t="str">
+      <c r="G20" s="2" t="str">
         <v>1|1|1</v>
       </c>
       <c r="I20" s="1">
         <v>2</v>
       </c>
-      <c r="J20" s="1" t="str">
+      <c r="J20" s="2" t="str">
         <v>5|-1</v>
       </c>
       <c r="K20" s="1">
